--- a/index.xlsx
+++ b/index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajap/Documents/GitHub/RithvikPonniah.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCED966F-5272-3748-A4C3-446ED338284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0701B5-81A8-3042-AC59-FFB48AB94284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15300" xr2:uid="{1D988CB5-33CF-7C41-BBEE-228C0FDEC4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Learings</t>
   </si>
@@ -2156,6 +2156,217 @@
       <t xml:space="preserve">
 - is a method of a string that checks whether the string starts with the given value.
 - Returns boolean value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Errors VS Exceptions - things that can go wrong with program.
+Errors
+- What ?
+    - Syntax errors - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">When you don’t follow the Python or java syntax you get a syntax error. This is called Syntax errors or errors
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- How can you find it ?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    - Your idea will indicate the errors using red underlining
+    - If you miss this you will get an error when you run the program
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- How can you prevent it ?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    - Knowing the syntax will help reduce the errors
+    - Paying close attention to the ide will help noticing errors
+    - Cannot be prevented by try and except
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Exceptions
+- What ?
+    - Logical error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - It happens when the user input is not anticipated and not logical
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- How can you find it ?
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- You can only find this when you execute the program and the user gives an unexpected input</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- How can you prevent it ?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    - exception handling</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Exception Handling
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- You can handle exceptions with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Try expect blocks
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> After the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> except you have to mention the exception type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>you are trying to handle a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+How to handle multiple Exceptions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1. You can have multiple exception blocks for every error
+2. You can have a single exception block for all error</t>
     </r>
   </si>
 </sst>
@@ -2280,13 +2491,30 @@
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2307,26 +2535,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2644,267 +2857,271 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54739F2-25B6-154F-8751-BAD803BED210}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="120.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:3" s="18" customFormat="1" ht="288" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+    <row r="3" spans="1:3" s="10" customFormat="1" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>14</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" s="10" customFormat="1" ht="288" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="5" spans="1:3" s="18" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" s="10" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
         <v>45263</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:3" s="18" customFormat="1" ht="224" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" s="10" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
         <v>45233</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="14">
         <v>45232</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="14">
         <v>45201</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="14">
         <v>45171</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="14">
         <v>45140</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="14">
         <v>45109</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="14">
         <v>45048</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="14">
         <v>45018</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="1"/>
@@ -2914,8 +3131,8 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="1"/>
@@ -2925,10 +3142,10 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="14">
         <v>44987</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="1"/>
@@ -2939,8 +3156,8 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="1"/>
@@ -2950,8 +3167,8 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="1"/>
@@ -2961,500 +3178,496 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="A44" s="14">
         <v>44959</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="5" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="15"/>
+      <c r="B46" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="4" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="5" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="4" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+      <c r="A54" s="14">
         <v>44928</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="15"/>
+      <c r="B55" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="4" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="4" t="s">
+      <c r="A58" s="18"/>
+      <c r="B58" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="4" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="4" t="s">
+      <c r="A60" s="18"/>
+      <c r="B60" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="4" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="4" t="s">
+      <c r="A62" s="18"/>
+      <c r="B62" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="4" t="s">
+      <c r="A63" s="18"/>
+      <c r="B63" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="4" t="s">
+      <c r="A64" s="18"/>
+      <c r="B64" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="4" t="s">
+      <c r="A65" s="19"/>
+      <c r="B65" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="11"/>
-      <c r="B67" s="4" t="s">
+      <c r="A67" s="18"/>
+      <c r="B67" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="11"/>
-      <c r="B68" s="4" t="s">
+      <c r="A68" s="18"/>
+      <c r="B68" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="4" t="s">
+      <c r="A69" s="19"/>
+      <c r="B69" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="11"/>
-      <c r="B71" s="4" t="s">
+      <c r="A71" s="18"/>
+      <c r="B71" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="4" t="s">
+      <c r="A72" s="19"/>
+      <c r="B72" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="11"/>
-      <c r="B74" s="4" t="s">
+      <c r="A74" s="18"/>
+      <c r="B74" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="11"/>
-      <c r="B75" s="4" t="s">
+      <c r="A75" s="18"/>
+      <c r="B75" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="11"/>
-      <c r="B76" s="4" t="s">
+      <c r="A76" s="18"/>
+      <c r="B76" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="12"/>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="19"/>
+      <c r="B77" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="11"/>
-      <c r="B79" s="4" t="s">
+      <c r="A79" s="18"/>
+      <c r="B79" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="11"/>
-      <c r="B80" s="4" t="s">
+      <c r="A80" s="18"/>
+      <c r="B80" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="11"/>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="18"/>
+      <c r="B81" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="11"/>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="18"/>
+      <c r="B82" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="11"/>
-      <c r="B83" s="4" t="s">
+      <c r="A83" s="18"/>
+      <c r="B83" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="12"/>
-      <c r="B84" s="4" t="s">
+      <c r="A84" s="19"/>
+      <c r="B84" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="11"/>
-      <c r="B86" s="4" t="s">
+      <c r="A86" s="18"/>
+      <c r="B86" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="12"/>
-      <c r="B87" s="4" t="s">
+      <c r="A87" s="19"/>
+      <c r="B87" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="11"/>
-      <c r="B89" s="4" t="s">
+      <c r="A89" s="18"/>
+      <c r="B89" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="11"/>
-      <c r="B90" s="4" t="s">
+      <c r="A90" s="18"/>
+      <c r="B90" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="11"/>
-      <c r="B91" s="4" t="s">
+      <c r="A91" s="18"/>
+      <c r="B91" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="12"/>
-      <c r="B92" s="4" t="s">
+      <c r="A92" s="19"/>
+      <c r="B92" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="13">
+      <c r="A93" s="6">
         <v>45261</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="7">
+      <c r="A94" s="14">
         <v>45231</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
-      <c r="B95" s="4" t="s">
+      <c r="A95" s="15"/>
+      <c r="B95" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
-      <c r="B96" s="4" t="s">
+      <c r="A96" s="16"/>
+      <c r="B96" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
+      <c r="A97" s="14">
         <v>45231</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="4" t="s">
+      <c r="A98" s="15"/>
+      <c r="B98" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="8"/>
-      <c r="B99" s="4" t="s">
+      <c r="A99" s="15"/>
+      <c r="B99" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
-      <c r="B100" s="4" t="s">
+      <c r="A100" s="16"/>
+      <c r="B100" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
+      <c r="A101" s="14">
         <v>45200</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C101" s="1"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="8"/>
-      <c r="B102" s="4" t="s">
+      <c r="A102" s="15"/>
+      <c r="B102" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
-      <c r="B103" s="4" t="s">
+      <c r="A103" s="15"/>
+      <c r="B103" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="4" t="s">
+      <c r="A104" s="16"/>
+      <c r="B104" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C105" s="1"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="11"/>
-      <c r="B106" s="4" t="s">
+      <c r="A106" s="18"/>
+      <c r="B106" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="11"/>
-      <c r="B107" s="4" t="s">
+      <c r="A107" s="18"/>
+      <c r="B107" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="11"/>
-      <c r="B108" s="4" t="s">
+      <c r="A108" s="18"/>
+      <c r="B108" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="11"/>
-      <c r="B109" s="4" t="s">
+      <c r="A109" s="18"/>
+      <c r="B109" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="11"/>
-      <c r="B110" s="4" t="s">
+      <c r="A110" s="18"/>
+      <c r="B110" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="12"/>
-      <c r="B111" s="4" t="s">
+      <c r="A111" s="19"/>
+      <c r="B111" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="7">
+      <c r="A112" s="14">
         <v>45139</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C112" s="1"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
-      <c r="B113" s="4" t="s">
+      <c r="A113" s="15"/>
+      <c r="B113" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
-      <c r="B114" s="4" t="s">
+      <c r="A114" s="16"/>
+      <c r="B114" s="3" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A88:A92"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
@@ -3462,12 +3675,16 @@
     <mergeCell ref="A44:A53"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A57:A65"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="A112:A114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
